--- a/Documentação/BackLog-TothLibs..xlsx
+++ b/Documentação/BackLog-TothLibs..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanan\Desktop\grupo05-adsa\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Desktop\grupo05-adsa\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8F4152-17B5-4AA7-8B4E-654EA3778AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C503AC07-4346-4F06-A902-6F8746915015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -253,13 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
@@ -278,6 +271,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,16 +362,13 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,20 +380,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,13 +909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -924,215 +924,215 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="3"/>
@@ -1141,18 +1141,18 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3"/>
@@ -1161,321 +1161,321 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="16"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="7" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
